--- a/Testdata/Testdata.xlsx
+++ b/Testdata/Testdata.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t>Sno</t>
   </si>
@@ -167,6 +167,39 @@
   </si>
   <si>
     <t>Passwd</t>
+  </si>
+  <si>
+    <t>xyz_abc@gmail.com</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Yoka</t>
+  </si>
+  <si>
+    <t>Postalcode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Mobile phone</t>
+  </si>
+  <si>
+    <t>Assign address</t>
+  </si>
+  <si>
+    <t>Yoka street</t>
   </si>
 </sst>
 </file>
@@ -533,7 +566,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1030,41 +1063,47 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="26" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="9.140625" style="8"/>
     <col min="11" max="11" width="11" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="8"/>
+    <col min="14" max="18" width="9.140625" style="8"/>
+    <col min="19" max="19" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>4</v>
@@ -1099,22 +1138,40 @@
       <c r="P1" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="8" t="s">
+      <c r="Q1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1</v>
+      <c r="E2" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>28</v>
@@ -1134,8 +1191,8 @@
       <c r="K2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>27</v>
+      <c r="L2" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="M2" s="9">
         <v>123456</v>
@@ -1149,10 +1206,29 @@
       <c r="P2" s="9">
         <v>222</v>
       </c>
+      <c r="Q2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="8">
+        <v>56000</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" s="8">
+        <v>7523652891</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="L2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
